--- a/data/template_with_dropdowns.xlsx
+++ b/data/template_with_dropdowns.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atana/Dev/electron/mil-tracker/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C346A-603F-CA42-899C-561F7BF09273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19440" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -37,32 +31,32 @@
     <sheet name="EquipmentAssignments" sheetId="22" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="AssignmentStatus_List">Enums!$B$26:$B$28</definedName>
+    <definedName name="AssignmentStatus_List">Enums!$B$27:$B$29</definedName>
     <definedName name="Branches_Codes">Branches!$B$2:$B$1000</definedName>
     <definedName name="Branches_Names">Branches!$A$2:$A$1000</definedName>
     <definedName name="Companies_Names">Companies!$A$2:$A$1000</definedName>
     <definedName name="Countries_ISO2">Countries!$B$2:$B$1000</definedName>
     <definedName name="Countries_Names">Countries!$A$2:$A$1000</definedName>
-    <definedName name="EquipmentCategory_List">Enums!$B$20:$B$25</definedName>
+    <definedName name="EquipmentCategory_List">Enums!$B$21:$B$26</definedName>
     <definedName name="Organizations_Names">Organizations!$A$2:$A$1000</definedName>
-    <definedName name="OrganizationType_List">Enums!$B$4:$B$7</definedName>
-    <definedName name="PersonType_List">Enums!$B$12:$B$13</definedName>
+    <definedName name="OrganizationType_List">Enums!$B$5:$B$7</definedName>
+    <definedName name="PersonType_List">Enums!$B$13:$B$14</definedName>
     <definedName name="Positions_Names">Positions!$A$2:$A$1000</definedName>
-    <definedName name="PostingType_List">Enums!$B$17:$B$19</definedName>
+    <definedName name="PostingType_List">Enums!$B$18:$B$20</definedName>
     <definedName name="Ranks_Names">Ranks!$A$2:$A$1000</definedName>
     <definedName name="RankTier_List">Enums!$B$2:$B$3</definedName>
     <definedName name="Regions_Names">Regions!$A$2:$A$1000</definedName>
-    <definedName name="ServiceStatus_List">Enums!$B$14:$B$16</definedName>
+    <definedName name="ServiceStatus_List">Enums!$B$15:$B$17</definedName>
     <definedName name="Specialties_Names">Specialties!$A$2:$A$1000</definedName>
     <definedName name="Units_Names">Units!$A$2:$A$1000</definedName>
-    <definedName name="UnitType_List">Enums!$B$8:$B$11</definedName>
+    <definedName name="UnitType_List">Enums!$B$9:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -408,12 +402,15 @@
   <si>
     <t>quantity</t>
   </si>
+  <si>
+    <t>GOVERNMENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -753,9 +750,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -774,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -788,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -796,9 +793,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -820,10 +817,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Company" sqref="A2:A1000" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Company" sqref="A2:A1000">
       <formula1>Companies_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Organization" sqref="B2:B1000" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Organization" sqref="B2:B1000">
       <formula1>Organizations_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -832,7 +829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -840,9 +837,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -852,10 +849,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="A2:A1000" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="A2:A1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Organization" sqref="B2:B1000" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Organization" sqref="B2:B1000">
       <formula1>Organizations_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -864,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -872,9 +869,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,17 +885,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -920,17 +921,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -967,19 +971,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε PersonType" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε PersonType" sqref="D2:D1000">
       <formula1>PersonType_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε ServiceStatus" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε ServiceStatus" sqref="E2:E1000">
       <formula1>ServiceStatus_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="I2:I1000" xr:uid="{00000000-0002-0000-0D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="I2:I1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Branch" sqref="J2:J1000" xr:uid="{00000000-0002-0000-0D00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Branch" sqref="J2:J1000">
       <formula1>Branches_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Rank" sqref="K2:K1000" xr:uid="{00000000-0002-0000-0D00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Rank" sqref="K2:K1000">
       <formula1>Ranks_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -988,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -996,9 +1000,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1023,13 +1027,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="C2:C1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Branch" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Branch" sqref="D2:D1000">
       <formula1>Branches_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Rank" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0E00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Rank" sqref="E2:E1000">
       <formula1>Ranks_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1038,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1046,9 +1050,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1067,10 +1071,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="D2:D1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Organization" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Organization" sqref="E2:E1000">
       <formula1>Organizations_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1079,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1087,9 +1091,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1109,17 +1113,17 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1144,7 +1148,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="E2:E1000" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="E2:E1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1153,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1161,9 +1165,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1182,7 +1186,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Organization" sqref="B2:B1000" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Organization" sqref="B2:B1000">
       <formula1>Organizations_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1191,22 +1195,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1236,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1256,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Region από το sheet Regions" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Region από το sheet Regions" sqref="C2:C1000">
       <formula1>Regions_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1261,17 +1265,32 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1314,19 +1333,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="C2:C1000" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country" sqref="C2:C1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Unit by Name" sqref="D2:D1000" xr:uid="{00000000-0002-0000-1300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Unit by Name" sqref="D2:D1000">
       <formula1>Units_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Organization" sqref="E2:E1000" xr:uid="{00000000-0002-0000-1300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Organization" sqref="E2:E1000">
       <formula1>Organizations_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Position" sqref="F2:F1000" xr:uid="{00000000-0002-0000-1300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Position" sqref="F2:F1000">
       <formula1>Positions_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε PostingType" sqref="G2:G1000" xr:uid="{00000000-0002-0000-1300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε PostingType" sqref="G2:G1000">
       <formula1>PostingType_List</formula1>
     </dataValidation>
   </dataValidations>
@@ -1335,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1343,9 +1362,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1367,13 +1386,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Category" sqref="C2:C1000" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Category" sqref="C2:C1000">
       <formula1>EquipmentCategory_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Manufacturer" sqref="D2:D1000" xr:uid="{00000000-0002-0000-1400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Manufacturer" sqref="D2:D1000">
       <formula1>Companies_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country of Origin" sqref="E2:E1000" xr:uid="{00000000-0002-0000-1400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Country of Origin" sqref="E2:E1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1382,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1390,9 +1409,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1414,10 +1433,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Unit" sqref="C2:C1000" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Unit" sqref="C2:C1000">
       <formula1>Units_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε AssignmentStatus" sqref="E2:E1000" xr:uid="{00000000-0002-0000-1500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε AssignmentStatus" sqref="E2:E1000">
       <formula1>AssignmentStatus_List</formula1>
     </dataValidation>
   </dataValidations>
@@ -1426,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1434,14 +1453,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1495,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country από το sheet Countries" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country από το sheet Countries" sqref="C2:C1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1485,21 +1504,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1523,203 +1542,211 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1729,22 +1756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1778,7 +1805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1795,7 +1822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1814,10 +1841,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε RankTier" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε RankTier" sqref="C2:C1000">
       <formula1>RankTier_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Branch" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Branch" sqref="E2:E1000">
       <formula1>Branches_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1826,17 +1853,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1869,13 +1902,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε OrganizationType" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε OrganizationType" sqref="C2:C1000">
       <formula1>OrganizationType_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="D2:D1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Parent" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="(Προαιρετικό) Parent" sqref="E2:E1000">
       <formula1>Organizations_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1884,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1892,9 +1925,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1942,13 +1975,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε UnitType" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε UnitType" sqref="C2:C1000">
       <formula1>UnitType_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="D2:D1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Branch" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Branch" sqref="E2:E1000">
       <formula1>Branches_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -1957,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1965,9 +1998,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +2017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +2033,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε HQ Country" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε HQ Country" sqref="E2:E1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
   </dataValidations>
@@ -2009,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2017,9 +2050,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2044,10 +2077,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Company" sqref="A2:A1000" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Company" sqref="A2:A1000">
       <formula1>Companies_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="B2:B1000" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Επιλογή" prompt="Διάλεξε Country" sqref="B2:B1000">
       <formula1>Countries_Names</formula1>
     </dataValidation>
   </dataValidations>
